--- a/Tabelas Consulta/Tabelas/Tabela_Conama.xlsx
+++ b/Tabelas Consulta/Tabelas/Tabela_Conama.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub/Programa Servmar/Teste Analise/Tabelas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://servmar365-my.sharepoint.com/personal/henrique_canhadas_servmarambiental_com/Documents/Documentos/Codigos/GitHub Servmar/ProjetoCanhadas/Tabelas Consulta/Tabelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_23F921ED07C38E6399654000F983D29167426B5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B745BA8-0088-4A69-80CE-5AD430E7BBF9}"/>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_23F921ED07C38E6399654000F983D29167426B5C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B7DEE5E-ABA3-42DE-90D2-427C9BDF7A05}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="172">
   <si>
     <t>Analyte</t>
   </si>
@@ -506,76 +506,10 @@
     <t>0,0003 (3)</t>
   </si>
   <si>
-    <t>3.500**</t>
-  </si>
-  <si>
-    <t>5*</t>
-  </si>
-  <si>
-    <t>10*</t>
-  </si>
-  <si>
-    <t>700*</t>
-  </si>
-  <si>
-    <t>2.000*</t>
-  </si>
-  <si>
-    <t>50*</t>
-  </si>
-  <si>
-    <t>2.450**</t>
-  </si>
-  <si>
-    <t>400**</t>
-  </si>
-  <si>
-    <t>1*</t>
-  </si>
-  <si>
-    <t>10.000*</t>
-  </si>
-  <si>
-    <t>1.050**</t>
-  </si>
-  <si>
-    <t>20*</t>
-  </si>
-  <si>
-    <t>300**</t>
-  </si>
-  <si>
-    <t>700**</t>
-  </si>
-  <si>
-    <t>500**</t>
-  </si>
-  <si>
-    <t>0,7*</t>
-  </si>
-  <si>
     <t>(a)*</t>
   </si>
   <si>
-    <t>30*</t>
-  </si>
-  <si>
     <t>(b)</t>
-  </si>
-  <si>
-    <t>70*</t>
-  </si>
-  <si>
-    <t>40*</t>
-  </si>
-  <si>
-    <t>2*</t>
-  </si>
-  <si>
-    <t>200*</t>
-  </si>
-  <si>
-    <t>9*</t>
   </si>
   <si>
     <t>(d)*</t>
@@ -664,12 +598,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -977,7 +912,7 @@
   <dimension ref="A1:G81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1033,8 +968,8 @@
       <c r="F2" t="s">
         <v>146</v>
       </c>
-      <c r="G2" t="s">
-        <v>161</v>
+      <c r="G2" s="3">
+        <v>3500</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -1056,8 +991,8 @@
       <c r="F3">
         <v>25</v>
       </c>
-      <c r="G3" t="s">
-        <v>162</v>
+      <c r="G3">
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1079,8 +1014,8 @@
       <c r="F4">
         <v>150</v>
       </c>
-      <c r="G4" t="s">
-        <v>163</v>
+      <c r="G4">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -1102,8 +1037,8 @@
       <c r="F5">
         <v>750</v>
       </c>
-      <c r="G5" t="s">
-        <v>164</v>
+      <c r="G5">
+        <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1148,8 +1083,8 @@
       <c r="F7">
         <v>20</v>
       </c>
-      <c r="G7" t="s">
-        <v>162</v>
+      <c r="G7">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1171,8 +1106,8 @@
       <c r="F8">
         <v>900</v>
       </c>
-      <c r="G8" t="s">
-        <v>163</v>
+      <c r="G8">
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1217,8 +1152,8 @@
       <c r="F10">
         <v>600</v>
       </c>
-      <c r="G10" t="s">
-        <v>165</v>
+      <c r="G10" s="3">
+        <v>2000</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1240,8 +1175,8 @@
       <c r="F11">
         <v>400</v>
       </c>
-      <c r="G11" t="s">
-        <v>166</v>
+      <c r="G11">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1263,8 +1198,8 @@
       <c r="F12" t="s">
         <v>146</v>
       </c>
-      <c r="G12" t="s">
-        <v>167</v>
+      <c r="G12" s="3">
+        <v>2450</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1286,8 +1221,8 @@
       <c r="F13" t="s">
         <v>146</v>
       </c>
-      <c r="G13" t="s">
-        <v>168</v>
+      <c r="G13">
+        <v>400</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1309,8 +1244,8 @@
       <c r="F14">
         <v>70</v>
       </c>
-      <c r="G14" t="s">
-        <v>169</v>
+      <c r="G14">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1378,8 +1313,8 @@
       <c r="F17" t="s">
         <v>146</v>
       </c>
-      <c r="G17" t="s">
-        <v>170</v>
+      <c r="G17" s="3">
+        <v>10000</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -1424,8 +1359,8 @@
       <c r="F19" t="s">
         <v>146</v>
       </c>
-      <c r="G19" t="s">
-        <v>163</v>
+      <c r="G19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -1470,8 +1405,8 @@
       <c r="F21">
         <v>2000</v>
       </c>
-      <c r="G21" t="s">
-        <v>171</v>
+      <c r="G21" s="3">
+        <v>1050</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -1493,8 +1428,8 @@
       <c r="F22">
         <v>0.15</v>
       </c>
-      <c r="G22" t="s">
-        <v>162</v>
+      <c r="G22">
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -1516,8 +1451,8 @@
       <c r="F23">
         <v>80</v>
       </c>
-      <c r="G23" t="s">
-        <v>172</v>
+      <c r="G23">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -1539,8 +1474,8 @@
       <c r="F24">
         <v>95</v>
       </c>
-      <c r="G24" t="s">
-        <v>173</v>
+      <c r="G24">
+        <v>300</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
@@ -1562,8 +1497,8 @@
       <c r="F25">
         <v>75</v>
       </c>
-      <c r="G25" t="s">
-        <v>174</v>
+      <c r="G25">
+        <v>700</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -1585,8 +1520,8 @@
       <c r="F26">
         <v>70</v>
       </c>
-      <c r="G26" t="s">
-        <v>175</v>
+      <c r="G26">
+        <v>500</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
@@ -1594,7 +1529,7 @@
         <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C27">
         <v>3.9E-2</v>
@@ -1700,8 +1635,8 @@
       <c r="F31">
         <v>3.5</v>
       </c>
-      <c r="G31" t="s">
-        <v>176</v>
+      <c r="G31">
+        <v>0.7</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
@@ -1755,7 +1690,7 @@
         <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="C34">
         <v>3.3</v>
@@ -1838,8 +1773,8 @@
       <c r="F37">
         <v>120</v>
       </c>
-      <c r="G37" t="s">
-        <v>174</v>
+      <c r="G37">
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
@@ -1931,7 +1866,7 @@
         <v>35</v>
       </c>
       <c r="G41" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -1954,7 +1889,7 @@
         <v>40</v>
       </c>
       <c r="G42" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -1977,7 +1912,7 @@
         <v>146</v>
       </c>
       <c r="G43" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2068,8 +2003,8 @@
       <c r="F47">
         <v>1</v>
       </c>
-      <c r="G47" t="s">
-        <v>169</v>
+      <c r="G47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -2114,8 +2049,8 @@
       <c r="F49">
         <v>0.5</v>
       </c>
-      <c r="G49" t="s">
-        <v>163</v>
+      <c r="G49">
+        <v>10</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2146,7 +2081,7 @@
         <v>56</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="C51">
         <v>3.0000000000000001E-3</v>
@@ -2160,8 +2095,8 @@
       <c r="F51">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="G51" t="s">
-        <v>162</v>
+      <c r="G51">
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2183,8 +2118,8 @@
       <c r="F52">
         <v>8</v>
       </c>
-      <c r="G52" t="s">
-        <v>178</v>
+      <c r="G52">
+        <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2207,7 +2142,7 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2230,7 +2165,7 @@
         <v>11</v>
       </c>
       <c r="G54" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2238,7 +2173,7 @@
         <v>60</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="C55">
         <v>7.7999999999999996E-3</v>
@@ -2252,8 +2187,8 @@
       <c r="F55">
         <v>22</v>
       </c>
-      <c r="G55" t="s">
-        <v>180</v>
+      <c r="G55">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2275,8 +2210,8 @@
       <c r="F56">
         <v>13</v>
       </c>
-      <c r="G56" t="s">
-        <v>181</v>
+      <c r="G56">
+        <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2284,7 +2219,7 @@
         <v>62</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C57">
         <v>1.7999999999999999E-2</v>
@@ -2298,8 +2233,8 @@
       <c r="F57">
         <v>15</v>
       </c>
-      <c r="G57" t="s">
-        <v>172</v>
+      <c r="G57">
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2344,8 +2279,8 @@
       <c r="F59">
         <v>1.3</v>
       </c>
-      <c r="G59" t="s">
-        <v>182</v>
+      <c r="G59">
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2445,7 +2380,7 @@
         <v>69</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="C64">
         <v>1.5</v>
@@ -2459,8 +2394,8 @@
       <c r="F64">
         <v>20</v>
       </c>
-      <c r="G64" t="s">
-        <v>183</v>
+      <c r="G64">
+        <v>200</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2528,8 +2463,8 @@
       <c r="F67">
         <v>3</v>
       </c>
-      <c r="G67" t="s">
-        <v>184</v>
+      <c r="G67">
+        <v>9</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -2667,7 +2602,7 @@
         <v>0.03</v>
       </c>
       <c r="G73" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -2690,7 +2625,7 @@
         <v>1.3</v>
       </c>
       <c r="G74" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -2713,7 +2648,7 @@
         <v>2.5</v>
       </c>
       <c r="G75" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -2736,7 +2671,7 @@
         <v>5</v>
       </c>
       <c r="G76" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -2759,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="G77" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -2782,7 +2717,7 @@
         <v>3</v>
       </c>
       <c r="G78" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -2827,8 +2762,8 @@
       <c r="F80">
         <v>1.5</v>
       </c>
-      <c r="G80" t="s">
-        <v>182</v>
+      <c r="G80">
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
